--- a/gene_ontology_analysis_miRNA/Final Tables miRNA.xlsx
+++ b/gene_ontology_analysis_miRNA/Final Tables miRNA.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzakaya/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzakaya/Desktop/temporalHiC/gene_ontology_analysis_miRNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F24102-B7DD-FA48-99AC-C70848209CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411FF25D-CBB9-A343-AD9D-917387CD00F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="8420" windowWidth="45260" windowHeight="16100" xr2:uid="{C713BDBF-00BA-DF41-8333-6DB46E39CD97}"/>
+    <workbookView xWindow="21100" yWindow="7720" windowWidth="26280" windowHeight="16100" xr2:uid="{C713BDBF-00BA-DF41-8333-6DB46E39CD97}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet name="Best-Worst Correl" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>Gene</t>
   </si>
@@ -177,6 +177,39 @@
   </si>
   <si>
     <t>Highly tissue-specific expression; regulation tied to structural tissue development; matrix-dependent activation patterns</t>
+  </si>
+  <si>
+    <t>Transcriptional regulation of hematopoiesis, T-helper cell differentiation control, histone methylation (H3-K9/H3-K4) regulation</t>
+  </si>
+  <si>
+    <t>Consistent expression in immune cell lineages, regulated epigenetic modification patterns, stable transcriptional activity across developmental stages</t>
+  </si>
+  <si>
+    <t>I made this table from the separate gene ontology tables of ENRICHR API</t>
+  </si>
+  <si>
+    <t>RNA polymerase II CTD phosphorylation, cyclin-dependent protein kinase activity, protein modification</t>
+  </si>
+  <si>
+    <t>Stable expression pattern linked to fundamental transcriptional machinery, essential function in RNA polymerase II regulation</t>
+  </si>
+  <si>
+    <t>DNA damage response with p53 signaling, cell cycle regulation, transcriptional activation/repression, apoptotic process</t>
+  </si>
+  <si>
+    <t>Stable expression linked to fundamental cellular processes, consistent role in cell cycle control</t>
+  </si>
+  <si>
+    <t>beta/gamma crystallin structural protein, possible transporter function</t>
+  </si>
+  <si>
+    <t>Broad expression pattern across tissues, stable structural protein role, involvement in fundamental cellular transport processes</t>
+  </si>
+  <si>
+    <t>miRNA catabolic process regulation,  pre-miRNA processing, RNA destabilization, negative regulation of miRNA-mediated gene silencing</t>
+  </si>
+  <si>
+    <t>Consistent role in miRNA metabolism, participation in fundamental RNA processing pathways</t>
   </si>
 </sst>
 </file>
@@ -267,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -276,7 +309,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -623,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEB0E6A-EB32-1C4B-9652-0EA4D83FBA6F}">
-  <dimension ref="C5:Q10"/>
+  <dimension ref="C5:Q12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -641,56 +673,56 @@
     <col min="10" max="11" width="10.83203125" style="1"/>
     <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="40.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5" style="1" customWidth="1"/>
     <col min="15" max="15" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="21.33203125" style="1" customWidth="1"/>
     <col min="18" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="3:17" ht="102" x14ac:dyDescent="0.2">
-      <c r="C6" s="8" t="s">
+    <row r="6" spans="3:17" ht="187" x14ac:dyDescent="0.2">
+      <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -711,23 +743,27 @@
       <c r="I6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="2"/>
+      <c r="N6" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="O6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="4"/>
+      <c r="Q6" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="7" spans="3:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="C7" s="8" t="s">
+    <row r="7" spans="3:17" ht="136" x14ac:dyDescent="0.2">
+      <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -748,23 +784,27 @@
       <c r="I7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="2"/>
+      <c r="N7" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="O7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" s="4"/>
+      <c r="Q7" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="8" spans="3:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="C8" s="8" t="s">
+    <row r="8" spans="3:17" ht="119" x14ac:dyDescent="0.2">
+      <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -785,23 +825,27 @@
       <c r="I8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="2"/>
+      <c r="N8" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="O8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q8" s="4"/>
+      <c r="Q8" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="9" spans="3:17" ht="85" x14ac:dyDescent="0.2">
-      <c r="C9" s="8" t="s">
+    <row r="9" spans="3:17" ht="102" x14ac:dyDescent="0.2">
+      <c r="C9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -822,23 +866,27 @@
       <c r="I9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="2"/>
+      <c r="N9" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="O9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="4"/>
+      <c r="Q9" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="10" spans="3:17" ht="85" x14ac:dyDescent="0.2">
-      <c r="C10" s="8" t="s">
+    <row r="10" spans="3:17" ht="136" x14ac:dyDescent="0.2">
+      <c r="C10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -859,20 +907,29 @@
       <c r="I10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="2"/>
+      <c r="N10" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="O10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="4"/>
+      <c r="Q10" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gene_ontology_analysis_miRNA/Final Tables miRNA.xlsx
+++ b/gene_ontology_analysis_miRNA/Final Tables miRNA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzakaya/Desktop/temporalHiC/gene_ontology_analysis_miRNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411FF25D-CBB9-A343-AD9D-917387CD00F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97B4C9A-5AF2-6D4E-A72B-38DD150565DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21100" yWindow="7720" windowWidth="26280" windowHeight="16100" xr2:uid="{C713BDBF-00BA-DF41-8333-6DB46E39CD97}"/>
+    <workbookView xWindow="21100" yWindow="7720" windowWidth="29980" windowHeight="16100" xr2:uid="{C713BDBF-00BA-DF41-8333-6DB46E39CD97}"/>
   </bookViews>
   <sheets>
     <sheet name="Best-Worst Correl" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
   <si>
     <t>Gene</t>
   </si>
@@ -210,6 +210,33 @@
   </si>
   <si>
     <t>Consistent role in miRNA metabolism, participation in fundamental RNA processing pathways</t>
+  </si>
+  <si>
+    <t>MYB, CDK19, and PLAGL1 are involved in essential, highly conserved cellular functions such as transcriptional regulation, cell cycle control, and DNA damage response. These core processes typically maintain consistent expression patterns across various conditions.</t>
+  </si>
+  <si>
+    <t>Three of the five genes (MYB, CDK19, PLAGL1) directly participate in transcriptional regulation or RNA processing machinery, which may provide buffering against expression fluctuations.</t>
+  </si>
+  <si>
+    <t>ETS1 and FLI1 show highly dynamic expression patterns based on inflammatory stimuli or tissue-specific signals, making their expression highly variable across different contexts.</t>
+  </si>
+  <si>
+    <t>FLI1 functions in both hemostasis and transcriptional regulation, which may lead to conflicting regulatory inputs depending on which function is prioritized in different contexts.</t>
+  </si>
+  <si>
+    <t>ZFP846 and FBXL12OS lack clear functional annotations, making their expression patterns difficult to predict or correlate with specific cellular processes.</t>
+  </si>
+  <si>
+    <t>COL5A3 exhibits highly tissue-specific expression tied to structural development, limiting its correlation with more broadly expressed genes.</t>
+  </si>
+  <si>
+    <t>Regulatory Stability: Best correlated genes tend to have more defined and consistent regulatory features, while worst correlated genes often have context-dependent regulation.</t>
+  </si>
+  <si>
+    <t>Functional Conservation: Best correlated genes participate in fundamental, evolutionarily conserved processes, while worst correlated genes often have specialized or poorly characterized functions.</t>
+  </si>
+  <si>
+    <t>Responsiveness to External Stimuli: Worst correlated genes often respond dynamically to external stimuli (inflammation, tissue remodeling), while best correlated genes maintain consistent expression despite environmental changes.</t>
   </si>
 </sst>
 </file>
@@ -253,7 +280,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,6 +296,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -320,6 +353,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,15 +691,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEB0E6A-EB32-1C4B-9652-0EA4D83FBA6F}">
-  <dimension ref="C5:Q12"/>
+  <dimension ref="C5:Q13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G8" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="32.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -671,7 +708,7 @@
     <col min="8" max="8" width="19.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="34" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" style="1" customWidth="1"/>
     <col min="13" max="13" width="40.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.5" style="1" customWidth="1"/>
     <col min="15" max="15" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -931,6 +968,35 @@
         <v>49</v>
       </c>
     </row>
+    <row r="13" spans="3:17" ht="289" x14ac:dyDescent="0.2">
+      <c r="C13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/gene_ontology_analysis_miRNA/Final Tables miRNA.xlsx
+++ b/gene_ontology_analysis_miRNA/Final Tables miRNA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzakaya/Desktop/temporalHiC/gene_ontology_analysis_miRNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97B4C9A-5AF2-6D4E-A72B-38DD150565DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB28DC75-36C3-CF4F-86DF-44BE044C61EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21100" yWindow="7720" windowWidth="29980" windowHeight="16100" xr2:uid="{C713BDBF-00BA-DF41-8333-6DB46E39CD97}"/>
+    <workbookView xWindow="5600" yWindow="5880" windowWidth="29980" windowHeight="16100" xr2:uid="{C713BDBF-00BA-DF41-8333-6DB46E39CD97}"/>
   </bookViews>
   <sheets>
     <sheet name="Best-Worst Correl" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
   <si>
     <t>Gene</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>Responsiveness to External Stimuli: Worst correlated genes often respond dynamically to external stimuli (inflammation, tissue remodeling), while best correlated genes maintain consistent expression despite environmental changes.</t>
+  </si>
+  <si>
+    <t>ß</t>
   </si>
 </sst>
 </file>
@@ -693,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEB0E6A-EB32-1C4B-9652-0EA4D83FBA6F}">
   <dimension ref="C5:Q13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G8" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -740,7 +743,7 @@
         <v>5</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>1</v>

--- a/gene_ontology_analysis_miRNA/Final Tables miRNA.xlsx
+++ b/gene_ontology_analysis_miRNA/Final Tables miRNA.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzakaya/Desktop/temporalHiC/gene_ontology_analysis_miRNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB28DC75-36C3-CF4F-86DF-44BE044C61EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C75886-AB7B-CD40-B8B2-CDD7B4EC6642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="5880" windowWidth="29980" windowHeight="16100" xr2:uid="{C713BDBF-00BA-DF41-8333-6DB46E39CD97}"/>
+    <workbookView xWindow="2540" yWindow="5980" windowWidth="41960" windowHeight="22460" xr2:uid="{C713BDBF-00BA-DF41-8333-6DB46E39CD97}"/>
   </bookViews>
   <sheets>
     <sheet name="Best-Worst Correl" sheetId="1" r:id="rId1"/>
+    <sheet name="Downregulated" sheetId="2" r:id="rId2"/>
+    <sheet name="Upregulated" sheetId="3" r:id="rId3"/>
+    <sheet name="Stable" sheetId="4" r:id="rId4"/>
+    <sheet name="TAD boundary" sheetId="6" r:id="rId5"/>
+    <sheet name="A-B Compartment" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,8 +40,54 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Beyza Kaya</author>
+  </authors>
+  <commentList>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{A736107A-C019-E04B-8596-67223CA42CB4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="162"/>
+          </rPr>
+          <t>Beyza Kaya:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="162"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="162"/>
+          </rPr>
+          <t>Buradaki key gene'lerin genel özellikleri icin WikiGenes'e referans verebiliriz</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="364">
   <si>
     <t>Gene</t>
   </si>
@@ -240,13 +291,901 @@
   </si>
   <si>
     <t>ß</t>
+  </si>
+  <si>
+    <t>Biological Function/Pathway</t>
+  </si>
+  <si>
+    <t>Biological Significance</t>
+  </si>
+  <si>
+    <t>Significance Level</t>
+  </si>
+  <si>
+    <t>Key Genes</t>
+  </si>
+  <si>
+    <t>Neuronal Development &amp; Synaptic Function</t>
+  </si>
+  <si>
+    <t>Regulates neuron projection morphogenesis, synapse assembly, neurotransmitter secretion, and synaptic vesicle recycling</t>
+  </si>
+  <si>
+    <t>Very High</t>
+  </si>
+  <si>
+    <t>NLGN1, GPM6A, TBC1D24, KLF7</t>
+  </si>
+  <si>
+    <t>Immune &amp; Inflammatory Regulation</t>
+  </si>
+  <si>
+    <t>Negatively regulates cytokine production, inflammatory response, and interferon production; modulates T cell activation</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>NLRC3, BCL6, MACIR</t>
+  </si>
+  <si>
+    <t>Membrane &amp; Cell Projection Organization</t>
+  </si>
+  <si>
+    <t>Controls filopodium assembly, cell junction assembly, and plasma membrane organization</t>
+  </si>
+  <si>
+    <t>GPM6A, NLGN1, CTNND1, TBC1D24</t>
+  </si>
+  <si>
+    <t>Lipid &amp; Cholesterol Metabolism</t>
+  </si>
+  <si>
+    <t>Regulates cholesterol transport, efflux, storage, and homeostasis; affects lipoprotein particle remodeling</t>
+  </si>
+  <si>
+    <t>Moderate-High</t>
+  </si>
+  <si>
+    <t>ABCG1</t>
+  </si>
+  <si>
+    <t>Signal Transduction</t>
+  </si>
+  <si>
+    <t>Modulates DNA damage response signaling, MAPK cascade, NF-KappaB signaling, and PI3K signaling</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>MAP3K20, PHLPP1, MDM4</t>
+  </si>
+  <si>
+    <t>RNA Processing &amp; Transcription</t>
+  </si>
+  <si>
+    <t>Controls transcription termination, RNA polymerase activity, and mRNA processing</t>
+  </si>
+  <si>
+    <t>TBP, SCAF8, LIN28B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein Modification		</t>
+  </si>
+  <si>
+    <t>Regulates protein glycosylation, ubiquitination, and phosphorylation</t>
+  </si>
+  <si>
+    <t>UBE2E3, TUSC3, TRIM7, DOLPP1</t>
+  </si>
+  <si>
+    <t>Molecular Function Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA Polymerase II Machinery Interaction		</t>
+  </si>
+  <si>
+    <t>Involved in transcription machinery binding, C-terminal domain binding, and transcription initiation factor binding</t>
+  </si>
+  <si>
+    <t>TBP, SCAF8</t>
+  </si>
+  <si>
+    <t>Lipid and Cholesterol Transport</t>
+  </si>
+  <si>
+    <t>Mediates phosphatidylcholine floppase activity, cholesterol transfer, and sterol transport</t>
+  </si>
+  <si>
+    <t>Immune Signaling Regulation</t>
+  </si>
+  <si>
+    <t>Regulates phosphatidylinositol 3-kinase regulatory subunit binding and immune response pathways</t>
+  </si>
+  <si>
+    <t>NLRC3</t>
+  </si>
+  <si>
+    <t>Ion Transport</t>
+  </si>
+  <si>
+    <t>Functions in magnesium ion transmembrane transport and metal ion transport</t>
+  </si>
+  <si>
+    <t>TUSC3</t>
+  </si>
+  <si>
+    <t>Phosphatase Activity</t>
+  </si>
+  <si>
+    <t>Exhibits protein tyrosine/serine/threonine phosphatase activity and phosphoric ester hydrolase activity</t>
+  </si>
+  <si>
+    <t>DUSP23, PHLPP1</t>
+  </si>
+  <si>
+    <t>Kinase Activity</t>
+  </si>
+  <si>
+    <t>Shows MAP kinase kinase activity and protein tyrosine kinase activity</t>
+  </si>
+  <si>
+    <t>MAP3K20, ITK</t>
+  </si>
+  <si>
+    <t>Membrane Protein Interaction</t>
+  </si>
+  <si>
+    <t>Facilitates neurexin family protein binding and PDZ domain binding</t>
+  </si>
+  <si>
+    <t>NLGN1</t>
+  </si>
+  <si>
+    <t>Nucleotide Binding</t>
+  </si>
+  <si>
+    <t>Involves ADP binding, ATP binding, and purine ribonucleoside triphosphate binding</t>
+  </si>
+  <si>
+    <t>Low-Moderate</t>
+  </si>
+  <si>
+    <t>ABCG1, GNL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNA Binding		</t>
+  </si>
+  <si>
+    <t>Functions in sequence-specific DNA binding and transcription factor activity</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>TBP, BCL6, FLI1, KLF7, SATB2</t>
+  </si>
+  <si>
+    <t>rRNA Processing &amp; Ribosome Biogenesis</t>
+  </si>
+  <si>
+    <t>Controls maturation of 5.8S rRNA, LSU-rRNA, and ribosomal subunit biogenesis</t>
+  </si>
+  <si>
+    <t>ABT1, PES1, WDR12</t>
+  </si>
+  <si>
+    <t>Carbohydrate &amp; Glucose Metabolism</t>
+  </si>
+  <si>
+    <t>Regulates glycolytic process, glucose homeostasis, and cellular response to glucose</t>
+  </si>
+  <si>
+    <t>PFKFB2, ZBTB20, CYP7A1</t>
+  </si>
+  <si>
+    <t>Cell-Cell Junction Organization</t>
+  </si>
+  <si>
+    <t>Mediates adherens junction organization, cell-cell junction assembly, and cadherin-mediated adhesion</t>
+  </si>
+  <si>
+    <t>CTNND1, CDH12</t>
+  </si>
+  <si>
+    <t>Controls bile acid biosynthesis, cholesterol catabolic process, and sterol metabolism</t>
+  </si>
+  <si>
+    <t>CYP7A1, ZBTB20</t>
+  </si>
+  <si>
+    <t>Wnt Signaling Pathway</t>
+  </si>
+  <si>
+    <t>Regulates canonical Wnt signaling and mesenchymal to epithelial transition</t>
+  </si>
+  <si>
+    <t>FZD7, PPP2CA</t>
+  </si>
+  <si>
+    <t>Transcriptional Regulation</t>
+  </si>
+  <si>
+    <t>Influences RNA polymerase II transcription and regulation of transcription elongation</t>
+  </si>
+  <si>
+    <t>HNRNPU, ETS1, ING2</t>
+  </si>
+  <si>
+    <t>Calcium Ion Homeostasis</t>
+  </si>
+  <si>
+    <t>Mediates calcium ion transport, homeostasis, and calcium-dependent signaling</t>
+  </si>
+  <si>
+    <t>SLC8A2, ATP13A3</t>
+  </si>
+  <si>
+    <t>Synaptic Function</t>
+  </si>
+  <si>
+    <t>Controls neurotransmitter secretion, synaptic vesicle cycle, and synaptic plasticity</t>
+  </si>
+  <si>
+    <t>CPLX2, SLC8A2, AMPH</t>
+  </si>
+  <si>
+    <t>Cellular Response to Starvation</t>
+  </si>
+  <si>
+    <t>Regulates response to amino acid starvation and autophagy</t>
+  </si>
+  <si>
+    <t>DAP, RNF152</t>
+  </si>
+  <si>
+    <t>Growth Factor Signaling</t>
+  </si>
+  <si>
+    <t>Mediates FGF signaling and regulation of protein localization</t>
+  </si>
+  <si>
+    <t>FGF21, DPP10</t>
+  </si>
+  <si>
+    <t>Nucleic Acid Binding</t>
+  </si>
+  <si>
+    <t>Functions in RNA binding, DNA binding, and nucleosome binding</t>
+  </si>
+  <si>
+    <t>HNRNPU, ABT1, ETS1, PES1</t>
+  </si>
+  <si>
+    <t>Ribosomal RNA Processing</t>
+  </si>
+  <si>
+    <t>Mediates rRNA binding, pre-rRNA processing, and ribosome assembly</t>
+  </si>
+  <si>
+    <t>Transcription Factor Activity</t>
+  </si>
+  <si>
+    <t>Exhibits transcription factor binding, transcriptional activator activity, and enhancer binding</t>
+  </si>
+  <si>
+    <t>ETS1, ING2, ZBTB20</t>
+  </si>
+  <si>
+    <t>Lipid Metabolism</t>
+  </si>
+  <si>
+    <t>Controls bile acid binding, cholesterol metabolism, and sterol binding</t>
+  </si>
+  <si>
+    <t>Protein Phosphatase Activity</t>
+  </si>
+  <si>
+    <t>Shows protein phosphatase activity and phosphatase binding</t>
+  </si>
+  <si>
+    <t>PPP2CA, DUSP4</t>
+  </si>
+  <si>
+    <t>Facilitates calcium ion binding, sodium:calcium exchanger activity, and ion channel binding</t>
+  </si>
+  <si>
+    <t>Cadherin Binding</t>
+  </si>
+  <si>
+    <t>Mediates cell adhesion molecule binding and cadherin binding</t>
+  </si>
+  <si>
+    <t>Enzyme Regulation</t>
+  </si>
+  <si>
+    <t>Exhibits enzyme inhibitor activity and enzyme regulator activity</t>
+  </si>
+  <si>
+    <t>SERPINF2, DPP10</t>
+  </si>
+  <si>
+    <t>Growth Factor Activity</t>
+  </si>
+  <si>
+    <t>Shows fibroblast growth factor activity and cytokine activity</t>
+  </si>
+  <si>
+    <t>FGF21</t>
+  </si>
+  <si>
+    <t>Protein Kinase Binding</t>
+  </si>
+  <si>
+    <t>Facilitates protein kinase binding and kinase binding</t>
+  </si>
+  <si>
+    <t>Cell Death &amp; Survival</t>
+  </si>
+  <si>
+    <t>Regulates programmed necrotic cell death, necroptotic process, and negative regulation of intrinsic apoptotic signaling</t>
+  </si>
+  <si>
+    <t>PPIF, LY96, YWHAQ</t>
+  </si>
+  <si>
+    <t>Immune System Signaling</t>
+  </si>
+  <si>
+    <t>Controls toll-like receptor 4 signaling pathway, MyD88-dependent/independent signaling, and regulation of inflammatory responses</t>
+  </si>
+  <si>
+    <t>LY96,NMI</t>
+  </si>
+  <si>
+    <t>Cell Projection Organization</t>
+  </si>
+  <si>
+    <t>Mediates lamellipodium assembly/organization, filopodium assembly, and plasma membrane bounded cell projection morphogenesis</t>
+  </si>
+  <si>
+    <t>CCDC88A, ARHGEF4, MAP4K4</t>
+  </si>
+  <si>
+    <t>Neuronal Development</t>
+  </si>
+  <si>
+    <t>Influences neuron projection morphogenesis/extension, dendrite development, and spinal cord development</t>
+  </si>
+  <si>
+    <t>SOX4, CDK6, SLC9A6,NSMF</t>
+  </si>
+  <si>
+    <t>Cell Adhesion Regulation</t>
+  </si>
+  <si>
+    <t>Controls cell-matrix adhesion, focal adhesion assembly/disassembly, and regulation of cell-substrate adhesion</t>
+  </si>
+  <si>
+    <t>MAP4K4</t>
+  </si>
+  <si>
+    <t>Cardiac Development</t>
+  </si>
+  <si>
+    <t>Regulates cardiac ventricle morphogenesis, heart trabecula morphogenesis, and ventricular septum development</t>
+  </si>
+  <si>
+    <t>RBPJ, SOX4</t>
+  </si>
+  <si>
+    <t>Controls RNA metabolic processes, transcription elongation, and Notch signaling pathway</t>
+  </si>
+  <si>
+    <t>RBPJ, MYB, AFF4</t>
+  </si>
+  <si>
+    <t>Cell Cycle Control</t>
+  </si>
+  <si>
+    <t>Regulates G1/S phase transition, negative regulation of cellular senescence, and cell cycle checkpoints</t>
+  </si>
+  <si>
+    <t>CDK6, CCDC88A</t>
+  </si>
+  <si>
+    <t>Mediates chloride transmembrane transport, potassium ion transport, and regulation of pH</t>
+  </si>
+  <si>
+    <t>CLCN3, GABRA1, SLC9A6, KCNH7</t>
+  </si>
+  <si>
+    <t>Glucose Metabolism</t>
+  </si>
+  <si>
+    <t>Controls cellular glucose homeostasis, response to glucose, and monosaccharide transmembrane transport</t>
+  </si>
+  <si>
+    <t>SLC2A8, SOX4</t>
+  </si>
+  <si>
+    <t>Transmembrane Transporter Activity</t>
+  </si>
+  <si>
+    <t>Mediates chloride channel activity, sodium/proton exchange, and monosaccharide transport</t>
+  </si>
+  <si>
+    <t>CLCN3, SLC9A6, SLC2A8, KCNH7, GABRA1</t>
+  </si>
+  <si>
+    <t>Functions in sequence-specific DNA binding, transcriptional regulation, and chromatin binding</t>
+  </si>
+  <si>
+    <t>MYB, RBPJ, SOX4, BACH2, MZF1, IKZF2</t>
+  </si>
+  <si>
+    <t>Enzyme Binding</t>
+  </si>
+  <si>
+    <t>Facilitates protein kinase binding, phosphatase binding, and ubiquitin protein ligase binding</t>
+  </si>
+  <si>
+    <t>CCDC88A, YWHAQ, MAP4K4, NSMF</t>
+  </si>
+  <si>
+    <t>Exhibits protein serine/threonine kinase activity and MAP kinase activity</t>
+  </si>
+  <si>
+    <t>CDK6, DYRK1B, MAP4K4</t>
+  </si>
+  <si>
+    <t>RNA Binding</t>
+  </si>
+  <si>
+    <t>Participates in mRNA binding, pre-mRNA binding, and poly(A) RNA binding</t>
+  </si>
+  <si>
+    <t>HNRNPH1, CELF2, AFF4</t>
+  </si>
+  <si>
+    <t>Peptidyl-Prolyl Isomerase Activity</t>
+  </si>
+  <si>
+    <t>Catalyzes protein folding and peptidyl-prolyl isomerization</t>
+  </si>
+  <si>
+    <t>PPIF</t>
+  </si>
+  <si>
+    <t>Extracellular Matrix Interaction</t>
+  </si>
+  <si>
+    <t>Mediates extracellular matrix structural constituent and metalloendopeptidase activity</t>
+  </si>
+  <si>
+    <t>MMP16, COLQ, PRX</t>
+  </si>
+  <si>
+    <t>Cytoskeletal Protein Binding</t>
+  </si>
+  <si>
+    <t>Binds actin monomers and regulates cytoskeletal organization</t>
+  </si>
+  <si>
+    <t>PFN4, CCDC88A</t>
+  </si>
+  <si>
+    <t>Functions in activin receptor binding and growth factor activity</t>
+  </si>
+  <si>
+    <t>INHBB</t>
+  </si>
+  <si>
+    <t>GTPase Regulator Activity</t>
+  </si>
+  <si>
+    <t>Controls GTPase activator activity and regulation of small GTPase activity</t>
+  </si>
+  <si>
+    <t>ARHGEF4</t>
+  </si>
+  <si>
+    <t>Functional Category</t>
+  </si>
+  <si>
+    <t>Biological Process</t>
+  </si>
+  <si>
+    <t>Molecular Functions</t>
+  </si>
+  <si>
+    <t>RNA processing, mRNA stabilization, miRNA regulation</t>
+  </si>
+  <si>
+    <t>RNA polymerase II binding, CTD domain binding, C-terminal domain phosphoserine binding</t>
+  </si>
+  <si>
+    <t>SCAF8, HNRNPU, CELF2, LIN28B, ABT1</t>
+  </si>
+  <si>
+    <t>Immune System Regulation</t>
+  </si>
+  <si>
+    <t>Toll-like receptor signaling, adaptive immune response, cellular defense</t>
+  </si>
+  <si>
+    <t>Immune receptor binding</t>
+  </si>
+  <si>
+    <t>LY96, NMI, GNL1, BACH2, ITK</t>
+  </si>
+  <si>
+    <t>Cell Structure</t>
+  </si>
+  <si>
+    <t>Lamellipodium assembly, cell adhesion, focal adhesion dynamics</t>
+  </si>
+  <si>
+    <t>Actin binding, growth factor receptor binding</t>
+  </si>
+  <si>
+    <t>CCDC88A, ARHGEF4, MAP4K4, PFN4, ABRA</t>
+  </si>
+  <si>
+    <t>Signaling Pathways</t>
+  </si>
+  <si>
+    <t>JNK/MAPK cascade, Wnt signaling, TOR signaling</t>
+  </si>
+  <si>
+    <t>Protein kinase activity, GTPase regulation</t>
+  </si>
+  <si>
+    <t>MAP4K4, PHLPP1, FZD7, CDK6, CDK19</t>
+  </si>
+  <si>
+    <t>Metabolic Regulation</t>
+  </si>
+  <si>
+    <t>Insulin secretion, cholesterol metabolism, glucose import</t>
+  </si>
+  <si>
+    <t>Phosphatase activity, sterol transfer activity</t>
+  </si>
+  <si>
+    <t>KLF7, INHBB, ABCG1, CYP7A1, PFKFB2</t>
+  </si>
+  <si>
+    <t>Chloride transport, calcium ion homeostasis</t>
+  </si>
+  <si>
+    <t>Ion channel activity, antiporter activity</t>
+  </si>
+  <si>
+    <t>CLCN3, GABRA1, SLC8A2</t>
+  </si>
+  <si>
+    <t>Neuronal Function</t>
+  </si>
+  <si>
+    <t>Synaptic plasticity, synaptic vesicle recycling</t>
+  </si>
+  <si>
+    <t>Neurotransmitter receptor activity</t>
+  </si>
+  <si>
+    <t>NSMF, SLC8A2, TBC1D24, AMPH</t>
+  </si>
+  <si>
+    <t>DNA Repair &amp; Maintenance</t>
+  </si>
+  <si>
+    <t>Single strand break repair, telomere maintenance</t>
+  </si>
+  <si>
+    <t>DNA binding, exonuclease activity</t>
+  </si>
+  <si>
+    <t>APTX, HNRNPU, ANKRD28</t>
+  </si>
+  <si>
+    <t>RNA Processing</t>
+  </si>
+  <si>
+    <t>Maturation of LSU-rRNA, 5.8S rRNA processing, ribosomal large subunit biogenesis</t>
+  </si>
+  <si>
+    <t>RNA polymerase II binding, ribosomal large subunit binding</t>
+  </si>
+  <si>
+    <t>PES1, WDR12, HNRNPH1</t>
+  </si>
+  <si>
+    <t>Filopodium assembly, synapse assembly, neuron projection morphogenesis</t>
+  </si>
+  <si>
+    <t>Neurotransmitter receptor activity, transmitter-gated ion channel activity</t>
+  </si>
+  <si>
+    <t>GPM6A, NLGN1, FLRT1, CPLX2</t>
+  </si>
+  <si>
+    <t>Cell Adhesion</t>
+  </si>
+  <si>
+    <t>Cell junction assembly, calcium-dependent cell-cell adhesion</t>
+  </si>
+  <si>
+    <t>Cadherin binding, cell adhesion molecule binding</t>
+  </si>
+  <si>
+    <t>NLGN1, CDH12, JCAD</t>
+  </si>
+  <si>
+    <t>Transcription initiation from RNA polymerase II promoter, DNA-templated transcription</t>
+  </si>
+  <si>
+    <t>DNA binding, transcription factor activity</t>
+  </si>
+  <si>
+    <t>TBP, NR6A1, RBPJ, PPP2CA, ING2, BCL6, MYB, SOX4</t>
+  </si>
+  <si>
+    <t>T cell differentiation, negative regulation of B cell apoptotic process</t>
+  </si>
+  <si>
+    <t>Cytokine binding, immune receptor activity</t>
+  </si>
+  <si>
+    <t>BCL6, SOX4, MYB, NLRC3</t>
+  </si>
+  <si>
+    <t>Membrane Transport</t>
+  </si>
+  <si>
+    <t>Fructose transport, dehydroascorbic acid transport</t>
+  </si>
+  <si>
+    <t>Transmembrane transporter activity, sugar transporter activity</t>
+  </si>
+  <si>
+    <t>SLC2A8, GRAMD2A</t>
+  </si>
+  <si>
+    <t>Regulation of NF-kappaB activity, phosphatidylinositol 3-kinase signaling</t>
+  </si>
+  <si>
+    <t>Kinase activity, phosphatase activity</t>
+  </si>
+  <si>
+    <t>DAP, NLRC3, PPP2CA, MAP3K2</t>
+  </si>
+  <si>
+    <t>Synapse assembly, neuron projection morphogenesis, filopodium assembly, synaptic vesicle cycle</t>
+  </si>
+  <si>
+    <t>PDZ domain binding, neurexin binding, syntaxin-1 binding</t>
+  </si>
+  <si>
+    <t>NLGN1, GPM6A, FLRT1, CPLX2, SLC8A2</t>
+  </si>
+  <si>
+    <t>Ion Transport &amp; Homeostasis</t>
+  </si>
+  <si>
+    <t>Calcium ion homeostasis, chloride transport, regulation of pH</t>
+  </si>
+  <si>
+    <t>Solute:cation antiporter activity, calcium:sodium antiporter activity, voltage-gated channel activity</t>
+  </si>
+  <si>
+    <t>SLC8A2, CLCN3, KCNH7, ATP13A3</t>
+  </si>
+  <si>
+    <t>Transcription initiation/termination, RNA polymerase II activity</t>
+  </si>
+  <si>
+    <t>RNA polymerase II binding, transcription factor binding, DNA binding</t>
+  </si>
+  <si>
+    <t>TBP, SCAF8, RBPJ, MZF1, BCL6</t>
+  </si>
+  <si>
+    <t>Cadherin binding</t>
+  </si>
+  <si>
+    <t>CTNND1, CDH12, NLGN1</t>
+  </si>
+  <si>
+    <t>Toll-like receptor signaling, NF-kappaB signaling, MAPK cascade</t>
+  </si>
+  <si>
+    <t>Protein serine/threonine kinase activity, phosphatidylinositol binding</t>
+  </si>
+  <si>
+    <t>LY96, NMI, MAP3K2, MAP4K4, ING2, PLEKHB2</t>
+  </si>
+  <si>
+    <t>miRNA metabolism, mRNA 3'-end processing</t>
+  </si>
+  <si>
+    <t>RNA binding, mRNA binding</t>
+  </si>
+  <si>
+    <t>LIN28B, SCAF8, RBM47, EWSR1</t>
+  </si>
+  <si>
+    <t>Protein Modification</t>
+  </si>
+  <si>
+    <t>Regulation of cell aging, cellular senescence</t>
+  </si>
+  <si>
+    <t>Protein kinase activity, ubiquitin conjugating enzyme activity</t>
+  </si>
+  <si>
+    <t>ING2, CDK19, DYRK1B, MAP4K4, UBE2E3</t>
+  </si>
+  <si>
+    <t>Cardiac ventricle morphogenesis, ventricular trabecula formation</t>
+  </si>
+  <si>
+    <t>Transcription factor activity</t>
+  </si>
+  <si>
+    <t>Bile acid biosynthesis, cholesterol metabolism</t>
+  </si>
+  <si>
+    <t>Steroid hydroxylase activity</t>
+  </si>
+  <si>
+    <t>CYP7A1</t>
+  </si>
+  <si>
+    <t>GTPase Regulation</t>
+  </si>
+  <si>
+    <t>Regulation of small GTPase mediated signal transduction</t>
+  </si>
+  <si>
+    <t>GTPase activator activity, guanyl-nucleotide exchange factor activity</t>
+  </si>
+  <si>
+    <t>CHN1, TBC1D8, ARHGEF4</t>
+  </si>
+  <si>
+    <t>Immune Regulation</t>
+  </si>
+  <si>
+    <t>T cell differentiation, inflammatory response regulation</t>
+  </si>
+  <si>
+    <t>Cytokine binding</t>
+  </si>
+  <si>
+    <t>BCL6, NMI, LY96</t>
+  </si>
+  <si>
+    <t>Chromatin remodeling, regulation of transcription, regulation of gene expression</t>
+  </si>
+  <si>
+    <t>Transcription factor activity, DNA binding, chromatin binding, sequence-specific DNA binding</t>
+  </si>
+  <si>
+    <t>SATB2, EBF1, IKZF2, ETS1, BACH2, FLI1, KLF7, NR6A1, MYB, SOX4</t>
+  </si>
+  <si>
+    <t>Negative regulation of cytokine production in inflammatory response, T cell activation, adaptive immune response, negative regulation of NF-kappaB activity</t>
+  </si>
+  <si>
+    <t>Immune receptor activity, cytokine binding, T cell receptor binding</t>
+  </si>
+  <si>
+    <t>MACIR, NLRC3, ITK, GNL1, BACH2, DAP</t>
+  </si>
+  <si>
+    <t>Cell Differentiation Control</t>
+  </si>
+  <si>
+    <t>Negative regulation of cell differentiation, regulation of stem cell proliferation, negative regulation of cell aging</t>
+  </si>
+  <si>
+    <t>Transcription factor activity, chromatin binding</t>
+  </si>
+  <si>
+    <t>PPP2CA, CDK6, MYB, HNRNPU, ABCG1, SOX4</t>
+  </si>
+  <si>
+    <t>Negative regulation of insulin secretion, glucose homeostasis, cholesterol metabolism, reverse cholesterol transport</t>
+  </si>
+  <si>
+    <t>Phospholipid transporter activity, sterol transporter activity, cholesterol binding</t>
+  </si>
+  <si>
+    <t>KLF7, INHBB, ABCG1, PFKFB2, SLC2A8</t>
+  </si>
+  <si>
+    <t>RNA processing, mRNA stabilization, chromatin remodeling</t>
+  </si>
+  <si>
+    <t>RNA binding, mRNA binding, poly(A) RNA binding</t>
+  </si>
+  <si>
+    <t>HNRNPH1, CELF2, HNRNPU, CPEB2, ABT1, WDR12</t>
+  </si>
+  <si>
+    <t>JNK cascade, Wnt signaling, phosphatidylinositol 3-kinase signaling</t>
+  </si>
+  <si>
+    <t>Wnt-protein binding, phosphatase activity, kinase activity</t>
+  </si>
+  <si>
+    <t>PHLPP1, FZD7, NLRC3, PPP2CA, ITK</t>
+  </si>
+  <si>
+    <t>Developmental Processes</t>
+  </si>
+  <si>
+    <t>Neural tube development, cardiac development, atrioventricular valve morphogenesis, glial cell development</t>
+  </si>
+  <si>
+    <t>Transcription factor activity, DNA binding</t>
+  </si>
+  <si>
+    <t>MDM4, SOX4, CDK6, FZD7</t>
+  </si>
+  <si>
+    <t>Cell Proliferation Control</t>
+  </si>
+  <si>
+    <t>Regulation of fibroblast proliferation, negative regulation of cell population proliferation</t>
+  </si>
+  <si>
+    <t>Enzyme binding, kinase activity</t>
+  </si>
+  <si>
+    <t>CDK6, NLRC3, MDM4, ETS1, SOX4</t>
+  </si>
+  <si>
+    <t>Cellular Structure</t>
+  </si>
+  <si>
+    <t>Stress fiber assembly, focal adhesion assembly, cilium assembly</t>
+  </si>
+  <si>
+    <t>Actin binding, cytoskeletal protein binding</t>
+  </si>
+  <si>
+    <t>CCDC88A, FAM171A1, THSD1, TBC1D24, ABRA, PFN4</t>
+  </si>
+  <si>
+    <t>Synaptic vesicle recycling, neuromuscular synaptic transmission</t>
+  </si>
+  <si>
+    <t>GABA receptor activity, ion channel activity</t>
+  </si>
+  <si>
+    <t>TBC1D24, AMPH, GABRA1, NSMF</t>
+  </si>
+  <si>
+    <t>STRONG BOUNDARY</t>
+  </si>
+  <si>
+    <t>WEAK BOUNDARY</t>
+  </si>
+  <si>
+    <t>A COMPARTMENT</t>
+  </si>
+  <si>
+    <t>B COMPARTMENT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -278,6 +1217,35 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -336,7 +1304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -360,12 +1328,44 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF2DCDB"/>
+      <color rgb="FFF7C7BC"/>
+      <color rgb="FFE6B8B7"/>
+      <color rgb="FFF7C7CB"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -696,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEB0E6A-EB32-1C4B-9652-0EA4D83FBA6F}">
   <dimension ref="C5:Q13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:Q10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1003,4 +2003,1644 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF68CDB4-6A05-A14C-BF6A-3E616A71A383}">
+  <dimension ref="D5:L14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="29.5" customWidth="1"/>
+    <col min="11" max="12" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="D5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="4:12" ht="139" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" ht="139" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" ht="139" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12" ht="107" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="4:12" ht="110" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3DECC7-1B16-B446-9637-A5EF0BA2997B}">
+  <dimension ref="B6:K16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="106" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="110" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644D7981-9DD0-E741-ABFF-37EFC16E667B}">
+  <dimension ref="B3:K13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="119" x14ac:dyDescent="0.2">
+      <c r="B5" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="B6" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="B7" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="B8" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="B9" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="B10" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="B11" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B12" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699FBB19-3A80-B74F-B94E-E98C4FB22E5E}">
+  <dimension ref="B3:K15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" customWidth="1"/>
+    <col min="10" max="10" width="25.83203125" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="2:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="B5" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="B8" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B9" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B10" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B11" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B12" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B13" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B14" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="B15" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5ADE633-6F57-1D40-AF2E-EC3D52DB9ED5}">
+  <dimension ref="B3:L17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" customWidth="1"/>
+    <col min="9" max="9" width="38.6640625" customWidth="1"/>
+    <col min="10" max="10" width="25.83203125" customWidth="1"/>
+    <col min="11" max="11" width="32.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="2:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="B4" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="2:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="2:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="B7" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="2:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="B8" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="2:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="B9" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="B10" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="2:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="B11" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="2:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="B12" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="2:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="B13" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="2:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B14" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="2:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B15" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="2:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="B16" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="2:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="B17" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/gene_ontology_analysis_miRNA/Final Tables miRNA.xlsx
+++ b/gene_ontology_analysis_miRNA/Final Tables miRNA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzakaya/Desktop/temporalHiC/gene_ontology_analysis_miRNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C75886-AB7B-CD40-B8B2-CDD7B4EC6642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D978E5FE-24DC-DE4C-BC8A-7773585B107F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="5980" windowWidth="41960" windowHeight="22460" xr2:uid="{C713BDBF-00BA-DF41-8333-6DB46E39CD97}"/>
+    <workbookView xWindow="8640" yWindow="1020" windowWidth="34980" windowHeight="24200" activeTab="4" xr2:uid="{C713BDBF-00BA-DF41-8333-6DB46E39CD97}"/>
   </bookViews>
   <sheets>
     <sheet name="Best-Worst Correl" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="363">
   <si>
     <t>Gene</t>
   </si>
@@ -288,9 +288,6 @@
   </si>
   <si>
     <t>Responsiveness to External Stimuli: Worst correlated genes often respond dynamically to external stimuli (inflammation, tissue remodeling), while best correlated genes maintain consistent expression despite environmental changes.</t>
-  </si>
-  <si>
-    <t>ß</t>
   </si>
   <si>
     <t>Biological Function/Pathway</t>
@@ -1696,41 +1693,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEB0E6A-EB32-1C4B-9652-0EA4D83FBA6F}">
   <dimension ref="C5:Q13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="32.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="34" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
     <col min="10" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="40.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="19.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="22" style="1" customWidth="1"/>
+    <col min="17" max="17" width="23.5" style="1" customWidth="1"/>
     <col min="18" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:17" ht="102" x14ac:dyDescent="0.2">
       <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -1739,19 +1736,19 @@
       <c r="H5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="5" t="s">
         <v>28</v>
       </c>
       <c r="P5" s="5" t="s">
@@ -1761,11 +1758,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="3:17" ht="187" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:17" ht="153" x14ac:dyDescent="0.2">
       <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1786,7 +1783,7 @@
       <c r="L6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N6" s="3" t="s">
@@ -1802,11 +1799,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="3:17" ht="136" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:17" ht="170" x14ac:dyDescent="0.2">
       <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -1827,7 +1824,7 @@
       <c r="L7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N7" s="3" t="s">
@@ -1843,11 +1840,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="3:17" ht="119" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:17" ht="170" x14ac:dyDescent="0.2">
       <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1868,7 +1865,7 @@
       <c r="L8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N8" s="3" t="s">
@@ -1884,11 +1881,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="3:17" ht="102" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:17" ht="170" x14ac:dyDescent="0.2">
       <c r="C9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -1909,7 +1906,7 @@
       <c r="L9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="N9" s="3" t="s">
@@ -1925,11 +1922,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="3:17" ht="136" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:17" ht="153" x14ac:dyDescent="0.2">
       <c r="C10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1950,7 +1947,7 @@
       <c r="L10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N10" s="3" t="s">
@@ -1971,7 +1968,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="3:17" ht="289" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:17" ht="409.6" x14ac:dyDescent="0.2">
       <c r="C13" s="8" t="s">
         <v>60</v>
       </c>
@@ -2009,13 +2006,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF68CDB4-6A05-A14C-BF6A-3E616A71A383}">
   <dimension ref="D5:L14"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="26.1640625" customWidth="1"/>
     <col min="6" max="6" width="13.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" customWidth="1"/>
@@ -2026,218 +2023,218 @@
   <sheetData>
     <row r="5" spans="4:12" ht="51" x14ac:dyDescent="0.2">
       <c r="D5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="4:12" ht="139" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="G6" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="7" spans="4:12" ht="139" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="K7" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="4:12" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="9" spans="4:12" ht="139" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="G9" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="10" spans="4:12" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="G10" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="11" spans="4:12" ht="107" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="12" spans="4:12" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D12" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="13" spans="4:12" ht="110" customHeight="1" x14ac:dyDescent="0.2">
@@ -2247,16 +2244,16 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="L13" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="14" spans="4:12" ht="108" customHeight="1" x14ac:dyDescent="0.2">
@@ -2266,16 +2263,16 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="L14" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2306,288 +2303,288 @@
   <sheetData>
     <row r="6" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="H6" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="H7" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="H8" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="J8" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="H9" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="H10" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="J10" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="H11" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="110" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="H12" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="H13" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="J13" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="H14" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="H15" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="H16" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="J16" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2616,310 +2613,310 @@
   <sheetData>
     <row r="3" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="102" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="119" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="102" x14ac:dyDescent="0.2">
       <c r="B6" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="102" x14ac:dyDescent="0.2">
       <c r="B7" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="85" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="102" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="102" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="85" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="68" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="85" x14ac:dyDescent="0.2">
       <c r="B13" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2931,8 +2928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699FBB19-3A80-B74F-B94E-E98C4FB22E5E}">
   <dimension ref="B3:K15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2973,7 +2970,7 @@
     </row>
     <row r="5" spans="2:11" ht="30" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
@@ -2981,7 +2978,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="15"/>
@@ -2999,240 +2996,240 @@
       <c r="J6" s="15"/>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>236</v>
-      </c>
       <c r="K7" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="85" x14ac:dyDescent="0.2">
       <c r="B8" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B9" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B10" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="68" x14ac:dyDescent="0.2">
       <c r="B11" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I11" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B13" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="51" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>262</v>
-      </c>
       <c r="H14" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I14" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="34" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -3245,7 +3242,7 @@
   <dimension ref="B3:L17"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3274,7 +3271,7 @@
     </row>
     <row r="4" spans="2:12" ht="45" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
@@ -3282,7 +3279,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="15"/>
@@ -3300,337 +3297,337 @@
       <c r="J5" s="15"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="2:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>236</v>
-      </c>
       <c r="K6" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="2:12" ht="68" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>328</v>
       </c>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12" ht="85" x14ac:dyDescent="0.2">
       <c r="B8" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:12" ht="68" x14ac:dyDescent="0.2">
       <c r="B9" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>300</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="2:12" ht="51" x14ac:dyDescent="0.2">
       <c r="B10" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>275</v>
-      </c>
       <c r="D10" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>338</v>
       </c>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="2:12" ht="68" x14ac:dyDescent="0.2">
       <c r="B11" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I11" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="2:12" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>344</v>
       </c>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="2:12" ht="51" x14ac:dyDescent="0.2">
       <c r="B13" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>348</v>
       </c>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>314</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>351</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>352</v>
       </c>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>355</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>356</v>
       </c>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="2:12" ht="68" x14ac:dyDescent="0.2">
       <c r="B16" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>359</v>
       </c>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B17" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>325</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
